--- a/Data_driven_testing/Data.xlsx
+++ b/Data_driven_testing/Data.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\IT\Testing\Selenium_Class\Data_driven_testing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B0F252-39A3-405F-AC8A-E6EC1E4D838F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="75" windowWidth="20190" windowHeight="10380"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
@@ -18,73 +23,14 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Sl.No</t>
-  </si>
-  <si>
-    <t>Doctor Strange (November 4, 2016)</t>
-  </si>
-  <si>
-    <t>Guardians of the Galaxy Vol. 2 (May 5, 2017)</t>
-  </si>
-  <si>
-    <t>Spider-Man: Homecoming (July 7, 2017)</t>
-  </si>
-  <si>
-    <t>Thor: Ragnarok (November 3, 2017)</t>
-  </si>
-  <si>
-    <t>Black Panther (February 16, 2018)</t>
-  </si>
-  <si>
-    <t>Avengers: Infinity War (April 27, 2018)</t>
-  </si>
-  <si>
-    <t>Ant-Man and the Wasp (July 6, 2018)</t>
-  </si>
-  <si>
-    <t>Captain Marvel (March 8, 2019)</t>
-  </si>
-  <si>
-    <t>Avengers: Endgame (April 26, 2019)</t>
-  </si>
-  <si>
-    <t>Spider-Man: Far From Home (July 2, 2019)</t>
-  </si>
-  <si>
-    <t>Black Widow (July 9, 2021)</t>
-  </si>
-  <si>
-    <t>Shang-Chi and the Legend of the Ten Rings (September 3, 2021)</t>
-  </si>
-  <si>
-    <t>Eternals (November 5, 2021)</t>
-  </si>
-  <si>
-    <t>Spider-Man: No Way Home (December 17, 2021)</t>
-  </si>
-  <si>
-    <t>Doctor Strange in the Multiverse of Madness (May 6, 2021)</t>
-  </si>
-  <si>
-    <t>Thor: Love and Thunder (July 8, 2022)</t>
-  </si>
-  <si>
-    <t>Black Panther: Wakanda Forever (November 11, 2022)</t>
   </si>
   <si>
     <t>Person Name</t>
@@ -129,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -207,7 +153,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,14 +459,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -542,13 +487,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -556,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>2001</v>
@@ -570,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>2002</v>
@@ -584,7 +529,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>2003</v>
@@ -598,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>2004</v>
@@ -612,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>2005</v>
@@ -626,7 +571,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>2006</v>
@@ -640,7 +585,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <v>2007</v>
@@ -654,7 +599,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
         <v>2008</v>
@@ -668,7 +613,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>2009</v>
@@ -682,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <v>2010</v>
@@ -692,111 +637,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>